--- a/2021.3월 학년별 시간표(V2.1).xlsx
+++ b/2021.3월 학년별 시간표(V2.1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\한예진\Desktop\에이사이드\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\aside\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AEDA7EF-1C7B-4BB3-8B37-759DD2BC69DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105FC6E9-D8F8-4843-AEBA-EF35CFAF8118}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="학원용" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="67">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,10 +157,6 @@
   </si>
   <si>
     <t xml:space="preserve">이름 :                                             </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIDE 1학기 학년별 수업 시간표 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -305,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ASIDE 1학기 학년별 수업 시간표  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -404,6 +396,22 @@
       </rPr>
       <t xml:space="preserve">       (3/8개강)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIDE 고등부 2학년 1학기 학년별 수업 시간표 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIDE 고등부 3학년 1학기 학년별 수업 시간표 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIDE 중등부 3학년1학기 학년별 수업 시간표 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ASIDE 중등부 1,2학년 1학기 학년별 수업 시간표  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1321,6 +1329,72 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1330,91 +1404,211 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1426,254 +1620,68 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2315,51 +2323,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DA27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5.59765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.59765625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.58203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5.58203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.58203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.58203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.59765625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.59765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.58203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.58203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.58203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.58203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="9" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.296875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.8984375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.59765625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.9140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.58203125" style="3" customWidth="1"/>
     <col min="15" max="15" width="10.5" style="3" customWidth="1"/>
     <col min="16" max="105" width="9" style="10"/>
     <col min="106" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" s="1" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="134" t="s">
+    <row r="1" spans="1:105" s="1" customFormat="1" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
@@ -2451,41 +2459,41 @@
       <c r="CZ1" s="14"/>
       <c r="DA1" s="14"/>
     </row>
-    <row r="2" spans="1:105" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="116"/>
-      <c r="B2" s="69" t="s">
+    <row r="2" spans="1:105" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="32"/>
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="117" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="117"/>
-      <c r="H2" s="118" t="s">
+      <c r="G2" s="127"/>
+      <c r="H2" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="118"/>
-      <c r="J2" s="119" t="s">
+      <c r="I2" s="128"/>
+      <c r="J2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="120"/>
-      <c r="L2" s="70" t="s">
+      <c r="K2" s="121"/>
+      <c r="L2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="94"/>
-      <c r="N2" s="71" t="s">
+      <c r="M2" s="93"/>
+      <c r="N2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="78"/>
+      <c r="O2" s="63"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" s="26"/>
+      <c r="Q2" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="60"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
@@ -2574,43 +2582,43 @@
       <c r="CZ2" s="9"/>
       <c r="DA2" s="9"/>
     </row>
-    <row r="3" spans="1:105" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="61" t="s">
+    <row r="3" spans="1:105" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="115" t="s">
+      <c r="F3" s="82"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="115" t="s">
+      <c r="I3" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="106" t="s">
+      <c r="K3" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="109"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="75"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
@@ -2699,25 +2707,25 @@
       <c r="CZ3" s="11"/>
       <c r="DA3" s="11"/>
     </row>
-    <row r="4" spans="1:105" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="43"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="77"/>
+    <row r="4" spans="1:105" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="96"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="59"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
@@ -2806,45 +2814,45 @@
       <c r="CZ4" s="11"/>
       <c r="DA4" s="11"/>
     </row>
-    <row r="5" spans="1:105" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:105" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="40" t="s">
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="109"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="75"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="57"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="26" t="s">
+      <c r="Q5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="26"/>
+      <c r="R5" s="60"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
@@ -2933,25 +2941,25 @@
       <c r="CZ5" s="11"/>
       <c r="DA5" s="11"/>
     </row>
-    <row r="6" spans="1:105" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="43"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="77"/>
+    <row r="6" spans="1:105" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="96"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="59"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
@@ -3040,51 +3048,51 @@
       <c r="CZ6" s="11"/>
       <c r="DA6" s="11"/>
     </row>
-    <row r="7" spans="1:105" s="7" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:105" s="7" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="82" t="s">
+      <c r="K7" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="129" t="s">
+      <c r="L7" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="124"/>
-      <c r="O7" s="75"/>
+      <c r="M7" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="56"/>
+      <c r="O7" s="57"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
@@ -3173,25 +3181,25 @@
       <c r="CZ7" s="11"/>
       <c r="DA7" s="11"/>
     </row>
-    <row r="8" spans="1:105" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="61"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="76"/>
+    <row r="8" spans="1:105" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="95"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="61"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
@@ -3280,35 +3288,35 @@
       <c r="CZ8" s="11"/>
       <c r="DA8" s="11"/>
     </row>
-    <row r="9" spans="1:105" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="61"/>
-      <c r="B9" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="29" t="s">
+    <row r="9" spans="1:105" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="95"/>
+      <c r="B9" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="131" t="s">
+      <c r="D9" s="118"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="26"/>
-      <c r="O9" s="76"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="61"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="R9" s="26"/>
+      <c r="Q9" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" s="60"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
@@ -3397,25 +3405,25 @@
       <c r="CZ9" s="11"/>
       <c r="DA9" s="11"/>
     </row>
-    <row r="10" spans="1:105" s="12" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="43"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="77"/>
+    <row r="10" spans="1:105" s="12" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="96"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="59"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
@@ -3504,51 +3512,51 @@
       <c r="CZ10" s="11"/>
       <c r="DA10" s="11"/>
     </row>
-    <row r="11" spans="1:105" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:105" s="12" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="37" t="s">
+      <c r="B11" s="97"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="27" t="s">
+      <c r="E11" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="50" t="s">
+      <c r="I11" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="85" t="s">
+      <c r="K11" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="129" t="s">
+      <c r="N11" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="23" t="s">
-        <v>56</v>
-      </c>
       <c r="P11" s="11"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
@@ -3637,29 +3645,29 @@
       <c r="CZ11" s="11"/>
       <c r="DA11" s="11"/>
     </row>
-    <row r="12" spans="1:105" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="61"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="98" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" s="130"/>
-      <c r="O12" s="111"/>
+    <row r="12" spans="1:105" s="12" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="95"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="108"/>
+      <c r="O12" s="48"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
@@ -3748,126 +3756,126 @@
       <c r="CZ12" s="11"/>
       <c r="DA12" s="11"/>
     </row>
-    <row r="13" spans="1:105" s="11" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="61"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="81" t="s">
+    <row r="13" spans="1:105" s="11" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="95"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+    </row>
+    <row r="14" spans="1:105" s="11" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="95"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" s="98" t="s">
+      <c r="M14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="O13" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
+      <c r="O14" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
     </row>
-    <row r="14" spans="1:105" s="11" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="61"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="112" t="s">
+    <row r="15" spans="1:105" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="96"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="54"/>
+      <c r="O15" s="47"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+    </row>
+    <row r="16" spans="1:105" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="101"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" s="113" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-    </row>
-    <row r="15" spans="1:105" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="43"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="127"/>
-      <c r="O15" s="25"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-    </row>
-    <row r="16" spans="1:105" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="121" t="s">
+      <c r="M16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="133" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="129" t="s">
+      <c r="N16" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="O16" s="23" t="s">
-        <v>56</v>
-      </c>
       <c r="P16" s="11"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
@@ -3956,29 +3964,29 @@
       <c r="CZ16" s="11"/>
       <c r="DA16" s="11"/>
     </row>
-    <row r="17" spans="1:105" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="61"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="135"/>
-      <c r="O17" s="24"/>
+    <row r="17" spans="1:105" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="95"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="43"/>
+      <c r="O17" s="46"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
@@ -4067,33 +4075,33 @@
       <c r="CZ17" s="11"/>
       <c r="DA17" s="11"/>
     </row>
-    <row r="18" spans="1:105" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="61"/>
-      <c r="B18" s="29" t="s">
+    <row r="18" spans="1:105" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="95"/>
+      <c r="B18" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="29" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="98" t="s">
+      <c r="G18" s="38"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="135"/>
-      <c r="O18" s="24"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="46"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
@@ -4182,29 +4190,29 @@
       <c r="CZ18" s="11"/>
       <c r="DA18" s="11"/>
     </row>
-    <row r="19" spans="1:105" s="4" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="61"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="86"/>
+    <row r="19" spans="1:105" s="4" customFormat="1" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="95"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="104"/>
       <c r="L19" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="132"/>
-      <c r="O19" s="25"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="47"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
@@ -4293,39 +4301,39 @@
       <c r="CZ19" s="11"/>
       <c r="DA19" s="11"/>
     </row>
-    <row r="20" spans="1:105" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="91" t="s">
+    <row r="20" spans="1:105" s="7" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="37" t="s">
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="37" t="s">
+      <c r="E20" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="86"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" s="129" t="s">
+      <c r="I20" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="49"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="O20" s="23" t="s">
-        <v>52</v>
+      <c r="O20" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
@@ -4418,26 +4426,26 @@
       <c r="CZ20" s="11"/>
       <c r="DA20" s="11"/>
     </row>
-    <row r="21" spans="1:105" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="92"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="81" t="s">
+    <row r="21" spans="1:105" s="12" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="78"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="M21" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="N21" s="135"/>
-      <c r="O21" s="24"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="46"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -4529,49 +4537,49 @@
       <c r="CZ21" s="11"/>
       <c r="DA21" s="11"/>
     </row>
-    <row r="22" spans="1:105" s="11" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="92"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="81" t="s">
+    <row r="22" spans="1:105" s="11" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="78"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="43"/>
+      <c r="O22" s="46"/>
+    </row>
+    <row r="23" spans="1:105" s="11" customFormat="1" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="79"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="M22" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="135"/>
-      <c r="O22" s="24"/>
+      <c r="M23" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="44"/>
+      <c r="O23" s="47"/>
     </row>
-    <row r="23" spans="1:105" s="11" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="93"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" s="132"/>
-      <c r="O23" s="25"/>
-    </row>
-    <row r="24" spans="1:105" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:105" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -4671,26 +4679,82 @@
       <c r="CZ24" s="11"/>
       <c r="DA24" s="11"/>
     </row>
-    <row r="25" spans="1:105" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:105" x14ac:dyDescent="0.45">
       <c r="I25" s="5"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:105" x14ac:dyDescent="0.45">
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:105" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:105" x14ac:dyDescent="0.45">
       <c r="I27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="N20:N23"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="Q9:R19"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="Q5:R8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="J11:J15"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:G23"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C16:C19"/>
@@ -4706,79 +4770,23 @@
     <mergeCell ref="O14:O15"/>
     <mergeCell ref="N5:O6"/>
     <mergeCell ref="N7:O10"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="O16:O19"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L3:M4"/>
     <mergeCell ref="N3:O4"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="H20:H23"/>
     <mergeCell ref="I20:I23"/>
     <mergeCell ref="J20:J23"/>
     <mergeCell ref="K20:K23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:G23"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B11:C15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
     <mergeCell ref="G11:G15"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="J11:J15"/>
-    <mergeCell ref="K11:K15"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="Q5:R8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="Q9:R19"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="H16:H19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4793,64 +4801,64 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="12" max="13" width="13.59765625" customWidth="1"/>
+    <col min="12" max="13" width="13.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="K1" s="66" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K1" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
+    <row r="2" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="116"/>
-      <c r="B3" s="117" t="s">
+    <row r="3" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="32"/>
+      <c r="B3" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="117" t="s">
+      <c r="E3" s="128"/>
+      <c r="F3" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118" t="s">
+      <c r="G3" s="127"/>
+      <c r="H3" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="118"/>
-      <c r="J3" s="119" t="s">
+      <c r="I3" s="128"/>
+      <c r="J3" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="137"/>
+      <c r="K3" s="131"/>
       <c r="L3" s="19" t="s">
         <v>3</v>
       </c>
@@ -4858,68 +4866,60 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="D4" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="115" t="s">
+      <c r="E4" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="115" t="s">
+      <c r="F4" s="82"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="115" t="s">
+      <c r="I4" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="75" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="17"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
     </row>
-    <row r="5" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="43"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="108"/>
+    <row r="5" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="96"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="76"/>
       <c r="L5" s="18"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="F4:G5"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="D4:D5"/>
@@ -4931,6 +4931,14 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="F4:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4945,62 +4953,62 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="12" max="13" width="13.59765625" customWidth="1"/>
+    <col min="12" max="13" width="13.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="K1" s="66" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K1" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
     </row>
-    <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+    <row r="2" spans="1:15" ht="22.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="16"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="132"/>
+      <c r="D3" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="44" t="s">
+      <c r="E3" s="133"/>
+      <c r="F3" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45" t="s">
+      <c r="G3" s="132"/>
+      <c r="H3" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="53" t="s">
+      <c r="I3" s="133"/>
+      <c r="J3" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="54"/>
+      <c r="K3" s="135"/>
       <c r="L3" s="15" t="s">
         <v>3</v>
       </c>
@@ -5008,121 +5016,125 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="95"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" s="95"/>
+      <c r="B6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="118"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
+      <c r="M6" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="61"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="61"/>
-      <c r="B6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="113" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
-    </row>
-    <row r="7" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="43"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
+    <row r="7" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="96"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N4:O7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="N4:O7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="J2:M2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -5134,10 +5146,6 @@
     <mergeCell ref="H4:H7"/>
     <mergeCell ref="I4:I7"/>
     <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5155,113 +5163,113 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="9.19921875" customWidth="1"/>
-    <col min="9" max="9" width="9.09765625" customWidth="1"/>
-    <col min="12" max="13" width="13.59765625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.08203125" customWidth="1"/>
+    <col min="12" max="13" width="13.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.4">
-      <c r="K1" s="66" t="s">
+    <row r="1" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="K1" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
     </row>
-    <row r="2" spans="1:103" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="114" t="s">
+    <row r="2" spans="1:103" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:103" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:103" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="16"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="126"/>
+      <c r="D3" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="44" t="s">
+      <c r="E3" s="133"/>
+      <c r="F3" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45" t="s">
+      <c r="G3" s="132"/>
+      <c r="H3" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="53" t="s">
+      <c r="I3" s="133"/>
+      <c r="J3" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="70" t="s">
+      <c r="K3" s="135"/>
+      <c r="L3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="71" t="s">
+      <c r="M3" s="93"/>
+      <c r="N3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="78"/>
+      <c r="O3" s="63"/>
     </row>
-    <row r="4" spans="1:103" s="12" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:103" s="12" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="37" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="50" t="s">
+      <c r="I4" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="80" t="s">
+      <c r="L4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="128" t="s">
+      <c r="N4" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="45" t="s">
         <v>55</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>56</v>
       </c>
       <c r="P4"/>
       <c r="Q4" s="11"/>
@@ -5352,26 +5360,26 @@
       <c r="CX4" s="11"/>
       <c r="CY4" s="11"/>
     </row>
-    <row r="5" spans="1:103" s="12" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="61"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="98" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="138"/>
-      <c r="O5" s="111"/>
+    <row r="5" spans="1:103" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="95"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="136"/>
+      <c r="O5" s="48"/>
       <c r="P5"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -5461,88 +5469,84 @@
       <c r="CX5" s="11"/>
       <c r="CY5" s="11"/>
     </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.4">
-      <c r="A6" s="61"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="81" t="s">
+    <row r="6" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:103" ht="10.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="95"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="98" t="s">
+      <c r="M7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="79" t="s">
-        <v>57</v>
+      <c r="O7" s="55" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:103" ht="10.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="113" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:103" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="43"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="97" t="s">
+    <row r="8" spans="1:103" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="96"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="127"/>
-      <c r="O8" s="25"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:C3"/>
@@ -5550,13 +5554,17 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5570,115 +5578,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CY7"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="H1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="12" max="13" width="13.59765625" customWidth="1"/>
+    <col min="12" max="13" width="13.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.4">
-      <c r="K1" s="66" t="s">
+    <row r="1" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="K1" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
     </row>
-    <row r="2" spans="1:103" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+    <row r="2" spans="1:103" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="137" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="139" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
     </row>
-    <row r="3" spans="1:103" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="116"/>
-      <c r="B3" s="117" t="s">
+    <row r="3" spans="1:103" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="32"/>
+      <c r="B3" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="117" t="s">
+      <c r="E3" s="128"/>
+      <c r="F3" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118" t="s">
+      <c r="G3" s="127"/>
+      <c r="H3" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="118"/>
-      <c r="J3" s="119" t="s">
+      <c r="I3" s="128"/>
+      <c r="J3" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="137"/>
-      <c r="L3" s="70" t="s">
+      <c r="K3" s="131"/>
+      <c r="L3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71" t="s">
+      <c r="M3" s="62"/>
+      <c r="N3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="78"/>
+      <c r="O3" s="63"/>
     </row>
-    <row r="4" spans="1:103" s="4" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="61" t="s">
+    <row r="4" spans="1:103" s="4" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="28" t="s">
+      <c r="E4" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="121" t="s">
+      <c r="I4" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="101"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="133" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="135" t="s">
+      <c r="N4" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="46" t="s">
         <v>55</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>56</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -5769,26 +5777,26 @@
       <c r="CX4" s="11"/>
       <c r="CY4" s="11"/>
     </row>
-    <row r="5" spans="1:103" s="4" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="61"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="135"/>
-      <c r="O5" s="24"/>
+    <row r="5" spans="1:103" s="4" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="95"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="43"/>
+      <c r="O5" s="46"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -5878,30 +5886,30 @@
       <c r="CX5" s="11"/>
       <c r="CY5" s="11"/>
     </row>
-    <row r="6" spans="1:103" s="4" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="61"/>
-      <c r="B6" s="29" t="s">
+    <row r="6" spans="1:103" s="4" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="95"/>
+      <c r="B6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="29" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="98" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="135"/>
-      <c r="O6" s="24"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="46"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -5991,26 +5999,26 @@
       <c r="CX6" s="11"/>
       <c r="CY6" s="11"/>
     </row>
-    <row r="7" spans="1:103" s="4" customFormat="1" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="43"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="87"/>
+    <row r="7" spans="1:103" s="4" customFormat="1" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="96"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="105"/>
       <c r="L7" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="132"/>
-      <c r="O7" s="25"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="47"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -6102,6 +6110,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="O4:O7"/>
     <mergeCell ref="B6:B7"/>
@@ -6114,18 +6134,6 @@
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="N4:N7"/>
     <mergeCell ref="H4:H7"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
     <mergeCell ref="K4:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6140,108 +6148,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CY7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="12" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="9.8984375" customWidth="1"/>
+    <col min="13" max="13" width="9.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.4">
-      <c r="K1" s="66" t="s">
+    <row r="1" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="K1" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
     </row>
-    <row r="2" spans="1:103" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="39" t="s">
+    <row r="2" spans="1:103" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:103" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:103" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="16"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="132"/>
+      <c r="D3" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="44" t="s">
+      <c r="E3" s="133"/>
+      <c r="F3" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45" t="s">
+      <c r="G3" s="132"/>
+      <c r="H3" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="53" t="s">
+      <c r="I3" s="133"/>
+      <c r="J3" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="70" t="s">
+      <c r="K3" s="135"/>
+      <c r="L3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="71" t="s">
+      <c r="M3" s="93"/>
+      <c r="N3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="78"/>
+      <c r="O3" s="63"/>
     </row>
-    <row r="4" spans="1:103" s="12" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="91" t="s">
+    <row r="4" spans="1:103" s="12" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="37" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="37" t="s">
+      <c r="E4" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="105"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="128" t="s">
+      <c r="I4" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="49"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="23" t="s">
-        <v>52</v>
+      <c r="O4" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="P4"/>
       <c r="Q4" s="11"/>
@@ -6332,26 +6340,26 @@
       <c r="CX4" s="11"/>
       <c r="CY4" s="11"/>
     </row>
-    <row r="5" spans="1:103" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="92"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="81" t="s">
+    <row r="5" spans="1:103" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="78"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="139"/>
-      <c r="O5" s="24"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="46"/>
       <c r="P5"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -6441,50 +6449,62 @@
       <c r="CX5" s="11"/>
       <c r="CY5" s="11"/>
     </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.4">
-      <c r="A6" s="92"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="81" t="s">
+    <row r="6" spans="1:103" x14ac:dyDescent="0.45">
+      <c r="A6" s="78"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="140"/>
+      <c r="O6" s="46"/>
+    </row>
+    <row r="7" spans="1:103" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="79"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="139"/>
-      <c r="O6" s="24"/>
-    </row>
-    <row r="7" spans="1:103" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="93"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="97" t="s">
+      <c r="M7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="127"/>
-      <c r="O7" s="25"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L2:O2"/>
     <mergeCell ref="N4:N7"/>
     <mergeCell ref="O4:O7"/>
     <mergeCell ref="N3:O3"/>
@@ -6494,18 +6514,6 @@
     <mergeCell ref="I4:I7"/>
     <mergeCell ref="J4:J7"/>
     <mergeCell ref="K4:K7"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
